--- a/media/ipkim_download_fiz.xlsx
+++ b/media/ipkim_download_fiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/ForAll2/Влад/Акты сверок для сайта чужие/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C1D4A-3530-A24D-9E78-4A6365F069F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8501966-FB89-B747-B407-C0365FE19487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="627" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Тех. обсулж.</t>
+  </si>
+  <si>
+    <t>"Согласовано"</t>
   </si>
 </sst>
 </file>
@@ -555,7 +558,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -914,6 +917,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -926,23 +932,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1387,10 +1378,10 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="126" t="s">
+      <c r="P5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="126"/>
+      <c r="Q5" s="127"/>
       <c r="R5" s="114"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1418,17 +1409,17 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="127" t="s">
+      <c r="D7" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
       <c r="M7" s="115"/>
       <c r="N7" s="103"/>
       <c r="O7" s="24"/>
@@ -1876,10 +1867,10 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="128" t="s">
+      <c r="R20" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="129"/>
+      <c r="S20" s="130"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
@@ -3330,7 +3321,7 @@
   <dimension ref="A1:U105"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A7" sqref="A7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,8 +3357,10 @@
       <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="131" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="131"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -3452,10 +3445,10 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="126" t="s">
+      <c r="O5" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="126"/>
+      <c r="P5" s="127"/>
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -3476,24 +3469,24 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="127" t="s">
+      <c r="A7" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="27"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
+      <c r="P7" s="128"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:21" s="2" customFormat="1" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3990,13 +3983,13 @@
       <c r="D34" s="36"/>
       <c r="E34" s="25"/>
       <c r="F34" s="42"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="133"/>
-      <c r="M34" s="132"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="39"/>
       <c r="N34" s="24"/>
       <c r="O34" s="24"/>
       <c r="P34" s="44"/>
@@ -4008,13 +4001,13 @@
       <c r="D35" s="45"/>
       <c r="E35" s="46"/>
       <c r="F35" s="38"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="134"/>
-      <c r="I35" s="130"/>
-      <c r="J35" s="130"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
       <c r="P35" s="44"/>
@@ -4026,13 +4019,13 @@
       <c r="D36" s="47"/>
       <c r="E36" s="37"/>
       <c r="F36" s="48"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
       <c r="P36" s="44"/>
@@ -4044,13 +4037,13 @@
       <c r="D37" s="50"/>
       <c r="E37" s="25"/>
       <c r="F37" s="38"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="24"/>
       <c r="O37" s="24"/>
       <c r="P37" s="45"/>
@@ -4062,13 +4055,13 @@
       <c r="D38" s="47"/>
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="131"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="133"/>
-      <c r="M38" s="133"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="24"/>
       <c r="O38" s="24"/>
       <c r="P38" s="44"/>
@@ -5280,9 +5273,10 @@
       <c r="P105" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="O5:P5"/>
-    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>

--- a/media/ipkim_download_fiz.xlsx
+++ b/media/ipkim_download_fiz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladislavkateryushin/Documents/crm-ktsNew-test/media/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8501966-FB89-B747-B407-C0365FE19487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D6F6D7-FCFF-A048-834B-A8848EFDC96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15720" tabRatio="627" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Дата подключения</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>ИТОГО к оплате за май 2024г.:</t>
-  </si>
-  <si>
-    <t>АКТ сверки по физическим лицам за май 2024г.</t>
   </si>
   <si>
     <t>Порядковый №</t>
@@ -336,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,12 +349,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,33 +878,6 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -934,6 +898,33 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1378,10 +1369,10 @@
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="127" t="s">
+      <c r="P5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="127"/>
+      <c r="Q5" s="118"/>
       <c r="R5" s="114"/>
     </row>
     <row r="6" spans="1:24" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1409,17 +1400,17 @@
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
       <c r="M7" s="115"/>
       <c r="N7" s="103"/>
       <c r="O7" s="24"/>
@@ -1435,34 +1426,34 @@
     </row>
     <row r="9" spans="1:24" s="2" customFormat="1" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="92" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="94" t="s">
         <v>40</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>41</v>
       </c>
       <c r="E9" s="94" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="93" t="s">
+      <c r="H9" s="96" t="s">
         <v>43</v>
-      </c>
-      <c r="H9" s="96" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="109" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" s="110" t="s">
         <v>12</v>
@@ -1474,34 +1465,34 @@
         <v>1</v>
       </c>
       <c r="N9" s="111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9" s="110" t="s">
         <v>54</v>
-      </c>
-      <c r="P9" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9" s="110" t="s">
-        <v>55</v>
       </c>
       <c r="R9" s="112" t="s">
         <v>11</v>
       </c>
       <c r="S9" s="113" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="U9" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="U9" s="125" t="s">
+      <c r="V9" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="125" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="125"/>
-      <c r="X9" s="125"/>
+      <c r="W9" s="116"/>
+      <c r="X9" s="116"/>
     </row>
     <row r="10" spans="1:24" s="89" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="102">
@@ -1867,10 +1858,10 @@
       <c r="O20" s="24"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
-      <c r="R20" s="129" t="s">
+      <c r="R20" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="S20" s="130"/>
+      <c r="S20" s="121"/>
     </row>
     <row r="21" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
@@ -3321,7 +3312,7 @@
   <dimension ref="A1:U105"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:P7"/>
+      <selection activeCell="A30" sqref="A30:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,10 +3348,10 @@
       <c r="J1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="131"/>
+      <c r="K1" s="122" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="122"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -3445,10 +3436,10 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="22"/>
-      <c r="O5" s="127" t="s">
+      <c r="O5" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="127"/>
+      <c r="P5" s="118"/>
     </row>
     <row r="6" spans="1:21" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -3469,24 +3460,22 @@
       <c r="P6" s="18"/>
     </row>
     <row r="7" spans="1:21" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="128"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="128"/>
-      <c r="P7" s="128"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
+      <c r="O7" s="119"/>
+      <c r="P7" s="119"/>
     </row>
     <row r="8" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:21" s="2" customFormat="1" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3494,28 +3483,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="94" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>41</v>
       </c>
       <c r="D9" s="94" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="G9" s="96" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>44</v>
       </c>
       <c r="H9" s="97" t="s">
         <v>0</v>
       </c>
       <c r="I9" s="98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="110" t="s">
         <v>16</v>
@@ -3524,25 +3513,25 @@
         <v>1</v>
       </c>
       <c r="L9" s="98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M9" s="98" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="100" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="101" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q9" s="125"/>
-      <c r="R9" s="125"/>
-      <c r="S9" s="125"/>
-      <c r="T9" s="125"/>
-      <c r="U9" s="125"/>
+        <v>47</v>
+      </c>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
     </row>
     <row r="10" spans="1:21" s="4" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="58"/>
@@ -3905,22 +3894,22 @@
       <c r="P29" s="80"/>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="118"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="117"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="127"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="130"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="130"/>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="81"/>
@@ -4002,7 +3991,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="38"/>
       <c r="G35" s="39"/>
-      <c r="H35" s="126"/>
+      <c r="H35" s="117"/>
       <c r="I35" s="43"/>
       <c r="J35" s="43"/>
       <c r="K35" s="43"/>
